--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mmp9-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mmp9-Ephb2.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06507433333333333</v>
+        <v>0.1058806666666667</v>
       </c>
       <c r="H2">
-        <v>0.195223</v>
+        <v>0.317642</v>
       </c>
       <c r="I2">
-        <v>0.00278697288787583</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="J2">
-        <v>0.002786972887875831</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N2">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O2">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P2">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q2">
-        <v>0.01495651124177778</v>
+        <v>0.02210569499955556</v>
       </c>
       <c r="R2">
-        <v>0.134608601176</v>
+        <v>0.198951254996</v>
       </c>
       <c r="S2">
-        <v>6.943832663100696E-05</v>
+        <v>0.0002348190104164196</v>
       </c>
       <c r="T2">
-        <v>6.943832663100699E-05</v>
+        <v>0.0002348190104164196</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06507433333333333</v>
+        <v>0.1058806666666667</v>
       </c>
       <c r="H3">
-        <v>0.195223</v>
+        <v>0.317642</v>
       </c>
       <c r="I3">
-        <v>0.00278697288787583</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="J3">
-        <v>0.002786972887875831</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.337258</v>
       </c>
       <c r="O3">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P3">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q3">
-        <v>0.5496017242815556</v>
+        <v>0.8942419228484445</v>
       </c>
       <c r="R3">
-        <v>4.946415518534001</v>
+        <v>8.048177305636001</v>
       </c>
       <c r="S3">
-        <v>0.002551626073133019</v>
+        <v>0.00949913600999063</v>
       </c>
       <c r="T3">
-        <v>0.00255162607313302</v>
+        <v>0.009499136009990632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06507433333333333</v>
+        <v>0.1058806666666667</v>
       </c>
       <c r="H4">
-        <v>0.195223</v>
+        <v>0.317642</v>
       </c>
       <c r="I4">
-        <v>0.00278697288787583</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="J4">
-        <v>0.002786972887875831</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N4">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O4">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P4">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q4">
-        <v>0.002746744227111112</v>
+        <v>0.006216183352888889</v>
       </c>
       <c r="R4">
-        <v>0.024720698044</v>
+        <v>0.055945650176</v>
       </c>
       <c r="S4">
-        <v>1.275226018492956E-05</v>
+        <v>6.60317634673661E-05</v>
       </c>
       <c r="T4">
-        <v>1.275226018492956E-05</v>
+        <v>6.60317634673661E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.06507433333333333</v>
+        <v>0.1058806666666667</v>
       </c>
       <c r="H5">
-        <v>0.195223</v>
+        <v>0.317642</v>
       </c>
       <c r="I5">
-        <v>0.00278697288787583</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="J5">
-        <v>0.002786972887875831</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N5">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O5">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P5">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q5">
-        <v>0.03256187322188889</v>
+        <v>0.04864362529288889</v>
       </c>
       <c r="R5">
-        <v>0.293056858997</v>
+        <v>0.437792627636</v>
       </c>
       <c r="S5">
-        <v>0.0001511744251014386</v>
+        <v>0.0005167196939328504</v>
       </c>
       <c r="T5">
-        <v>0.0001511744251014387</v>
+        <v>0.0005167196939328504</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.06507433333333333</v>
+        <v>0.1058806666666667</v>
       </c>
       <c r="H6">
-        <v>0.195223</v>
+        <v>0.317642</v>
       </c>
       <c r="I6">
-        <v>0.00278697288787583</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="J6">
-        <v>0.002786972887875831</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N6">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O6">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P6">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q6">
-        <v>0.0004268659352222222</v>
+        <v>0.0003245242433333333</v>
       </c>
       <c r="R6">
-        <v>0.003841793417</v>
+        <v>0.00292071819</v>
       </c>
       <c r="S6">
-        <v>1.98180282543536E-06</v>
+        <v>3.447277349895708E-06</v>
       </c>
       <c r="T6">
-        <v>1.981802825435361E-06</v>
+        <v>3.447277349895709E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.578504666666667</v>
+        <v>7.578504666666666</v>
       </c>
       <c r="H7">
         <v>22.735514</v>
       </c>
       <c r="I7">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="J7">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N7">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O7">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P7">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q7">
-        <v>1.741823303240889</v>
+        <v>1.582235151970222</v>
       </c>
       <c r="R7">
-        <v>15.676409729168</v>
+        <v>14.240116367732</v>
       </c>
       <c r="S7">
-        <v>0.008086731825941778</v>
+        <v>0.01680738346562688</v>
       </c>
       <c r="T7">
-        <v>0.008086731825941782</v>
+        <v>0.01680738346562688</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.578504666666667</v>
+        <v>7.578504666666666</v>
       </c>
       <c r="H8">
         <v>22.735514</v>
       </c>
       <c r="I8">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="J8">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>25.337258</v>
       </c>
       <c r="O8">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P8">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q8">
         <v>64.00617599784579</v>
       </c>
       <c r="R8">
-        <v>576.0555839806121</v>
+        <v>576.055583980612</v>
       </c>
       <c r="S8">
-        <v>0.2971603259271745</v>
+        <v>0.6799092681164521</v>
       </c>
       <c r="T8">
-        <v>0.2971603259271746</v>
+        <v>0.6799092681164522</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.578504666666667</v>
+        <v>7.578504666666666</v>
       </c>
       <c r="H9">
         <v>22.735514</v>
       </c>
       <c r="I9">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="J9">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N9">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O9">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P9">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q9">
-        <v>0.3198836296435557</v>
+        <v>0.4449289566435556</v>
       </c>
       <c r="R9">
-        <v>2.878952666792001</v>
+        <v>4.004360609792</v>
       </c>
       <c r="S9">
-        <v>0.001485117993095633</v>
+        <v>0.004726283308746924</v>
       </c>
       <c r="T9">
-        <v>0.001485117993095633</v>
+        <v>0.004726283308746924</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.578504666666667</v>
+        <v>7.578504666666666</v>
       </c>
       <c r="H10">
         <v>22.735514</v>
       </c>
       <c r="I10">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="J10">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N10">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O10">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P10">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q10">
-        <v>3.792129638938445</v>
+        <v>3.481711561623555</v>
       </c>
       <c r="R10">
-        <v>34.129166750446</v>
+        <v>31.335404054612</v>
       </c>
       <c r="S10">
-        <v>0.01760565229678732</v>
+        <v>0.03698468034921715</v>
       </c>
       <c r="T10">
-        <v>0.01760565229678732</v>
+        <v>0.03698468034921715</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.578504666666667</v>
+        <v>7.578504666666666</v>
       </c>
       <c r="H11">
         <v>22.735514</v>
       </c>
       <c r="I11">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="J11">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N11">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O11">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P11">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q11">
-        <v>0.04971246444511111</v>
+        <v>0.02322811680333333</v>
       </c>
       <c r="R11">
-        <v>0.447412180006</v>
+        <v>0.20905305123</v>
       </c>
       <c r="S11">
-        <v>0.0002307991675311064</v>
+        <v>0.0002467420002721201</v>
       </c>
       <c r="T11">
-        <v>0.0002307991675311065</v>
+        <v>0.0002467420002721201</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>7.305763</v>
+        <v>0.30232</v>
       </c>
       <c r="H12">
-        <v>21.917289</v>
+        <v>0.90696</v>
       </c>
       <c r="I12">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="J12">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N12">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O12">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P12">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q12">
-        <v>1.679137085885333</v>
+        <v>0.06311816805333333</v>
       </c>
       <c r="R12">
-        <v>15.112233772968</v>
+        <v>0.56806351248</v>
       </c>
       <c r="S12">
-        <v>0.007795699648341517</v>
+        <v>0.0006704763528981554</v>
       </c>
       <c r="T12">
-        <v>0.007795699648341519</v>
+        <v>0.0006704763528981555</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>7.305763</v>
+        <v>0.30232</v>
       </c>
       <c r="H13">
-        <v>21.917289</v>
+        <v>0.90696</v>
       </c>
       <c r="I13">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="J13">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>25.337258</v>
       </c>
       <c r="O13">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P13">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q13">
-        <v>61.70266733928467</v>
+        <v>2.553319946186666</v>
       </c>
       <c r="R13">
-        <v>555.324006053562</v>
+        <v>22.97987951568</v>
       </c>
       <c r="S13">
-        <v>0.2864658675708883</v>
+        <v>0.02712278727504895</v>
       </c>
       <c r="T13">
-        <v>0.2864658675708883</v>
+        <v>0.02712278727504896</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>7.305763</v>
+        <v>0.30232</v>
       </c>
       <c r="H14">
-        <v>21.917289</v>
+        <v>0.90696</v>
       </c>
       <c r="I14">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="J14">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N14">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O14">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P14">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q14">
-        <v>0.3083713857213334</v>
+        <v>0.01774900565333333</v>
       </c>
       <c r="R14">
-        <v>2.775342471492</v>
+        <v>0.15974105088</v>
       </c>
       <c r="S14">
-        <v>0.001431670304607012</v>
+        <v>0.0001885398284684089</v>
       </c>
       <c r="T14">
-        <v>0.001431670304607012</v>
+        <v>0.000188539828468409</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>7.305763</v>
+        <v>0.30232</v>
       </c>
       <c r="H15">
-        <v>21.917289</v>
+        <v>0.90696</v>
       </c>
       <c r="I15">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="J15">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N15">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O15">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P15">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q15">
-        <v>3.655655254685667</v>
+        <v>0.1388916528533333</v>
       </c>
       <c r="R15">
-        <v>32.900897292171</v>
+        <v>1.25002487568</v>
       </c>
       <c r="S15">
-        <v>0.01697204511946382</v>
+        <v>0.001475384532301578</v>
       </c>
       <c r="T15">
-        <v>0.01697204511946382</v>
+        <v>0.001475384532301579</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>7.305763</v>
+        <v>0.30232</v>
       </c>
       <c r="H16">
-        <v>21.917289</v>
+        <v>0.90696</v>
       </c>
       <c r="I16">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="J16">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N16">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O16">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P16">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q16">
-        <v>0.04792337002566666</v>
+        <v>0.0009266108</v>
       </c>
       <c r="R16">
-        <v>0.431310330231</v>
+        <v>0.0083394972</v>
       </c>
       <c r="S16">
-        <v>0.0002224929709413508</v>
+        <v>9.842976260259699E-06</v>
       </c>
       <c r="T16">
-        <v>0.0002224929709413509</v>
+        <v>9.842976260259701E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.398048</v>
+        <v>0.7763563333333333</v>
       </c>
       <c r="H17">
-        <v>1.194144</v>
+        <v>2.329069</v>
       </c>
       <c r="I17">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133109</v>
       </c>
       <c r="J17">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133111</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N17">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O17">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P17">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q17">
-        <v>0.09148629085866668</v>
+        <v>0.1620871577024444</v>
       </c>
       <c r="R17">
-        <v>0.8233766177280001</v>
+        <v>1.458784419322</v>
       </c>
       <c r="S17">
-        <v>0.0004247417625815462</v>
+        <v>0.001721780110223333</v>
       </c>
       <c r="T17">
-        <v>0.0004247417625815463</v>
+        <v>0.001721780110223333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.398048</v>
+        <v>0.7763563333333333</v>
       </c>
       <c r="H18">
-        <v>1.194144</v>
+        <v>2.329069</v>
       </c>
       <c r="I18">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133109</v>
       </c>
       <c r="J18">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133111</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>25.337258</v>
       </c>
       <c r="O18">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P18">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q18">
-        <v>3.361814957461334</v>
+        <v>6.556913572533556</v>
       </c>
       <c r="R18">
-        <v>30.256334617152</v>
+        <v>59.012222152802</v>
       </c>
       <c r="S18">
-        <v>0.01560783803893679</v>
+        <v>0.06965118972822507</v>
       </c>
       <c r="T18">
-        <v>0.01560783803893679</v>
+        <v>0.06965118972822508</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.398048</v>
+        <v>0.7763563333333333</v>
       </c>
       <c r="H19">
-        <v>1.194144</v>
+        <v>2.329069</v>
       </c>
       <c r="I19">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133109</v>
       </c>
       <c r="J19">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133111</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N19">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O19">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P19">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q19">
-        <v>0.01680134071466667</v>
+        <v>0.04557936275911111</v>
       </c>
       <c r="R19">
-        <v>0.151212066432</v>
+        <v>0.410214264832</v>
       </c>
       <c r="S19">
-        <v>7.800328335427961E-05</v>
+        <v>0.0004841693897758322</v>
       </c>
       <c r="T19">
-        <v>7.800328335427962E-05</v>
+        <v>0.0004841693897758323</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.398048</v>
+        <v>0.7763563333333333</v>
       </c>
       <c r="H20">
-        <v>1.194144</v>
+        <v>2.329069</v>
       </c>
       <c r="I20">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133109</v>
       </c>
       <c r="J20">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133111</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N20">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O20">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P20">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q20">
-        <v>0.1991751255573333</v>
+        <v>0.3566731090891111</v>
       </c>
       <c r="R20">
-        <v>1.792576130016</v>
+        <v>3.210057981802</v>
       </c>
       <c r="S20">
-        <v>0.0009247067850014207</v>
+        <v>0.003788780516520139</v>
       </c>
       <c r="T20">
-        <v>0.0009247067850014209</v>
+        <v>0.003788780516520139</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.398048</v>
+        <v>0.7763563333333333</v>
       </c>
       <c r="H21">
-        <v>1.194144</v>
+        <v>2.329069</v>
       </c>
       <c r="I21">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133109</v>
       </c>
       <c r="J21">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133111</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N21">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O21">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P21">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q21">
-        <v>0.002611062197333333</v>
+        <v>0.002379532161666667</v>
       </c>
       <c r="R21">
-        <v>0.023499559776</v>
+        <v>0.021415789455</v>
       </c>
       <c r="S21">
-        <v>1.212233165752336E-05</v>
+        <v>2.527671658673679E-05</v>
       </c>
       <c r="T21">
-        <v>1.212233165752336E-05</v>
+        <v>2.52767165867368E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.002077666666667</v>
+        <v>1.49654</v>
       </c>
       <c r="H22">
-        <v>24.006233</v>
+        <v>4.48962</v>
       </c>
       <c r="I22">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="J22">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N22">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O22">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P22">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q22">
-        <v>1.839176192032889</v>
+        <v>0.3124466235066667</v>
       </c>
       <c r="R22">
-        <v>16.552585728296</v>
+        <v>2.81201961156</v>
       </c>
       <c r="S22">
-        <v>0.008538710337583473</v>
+        <v>0.003318982141989302</v>
       </c>
       <c r="T22">
-        <v>0.008538710337583473</v>
+        <v>0.003318982141989302</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.002077666666667</v>
+        <v>1.49654</v>
       </c>
       <c r="H23">
-        <v>24.006233</v>
+        <v>4.48962</v>
       </c>
       <c r="I23">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="J23">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>25.337258</v>
       </c>
       <c r="O23">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P23">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q23">
-        <v>67.58356879212378</v>
+        <v>12.63940669577334</v>
       </c>
       <c r="R23">
-        <v>608.252119129114</v>
+        <v>113.75466026196</v>
       </c>
       <c r="S23">
-        <v>0.3137690233246406</v>
+        <v>0.134262821078995</v>
       </c>
       <c r="T23">
-        <v>0.3137690233246406</v>
+        <v>0.134262821078995</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.002077666666667</v>
+        <v>1.49654</v>
       </c>
       <c r="H24">
-        <v>24.006233</v>
+        <v>4.48962</v>
       </c>
       <c r="I24">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="J24">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N24">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O24">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P24">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q24">
-        <v>0.3377623635915556</v>
+        <v>0.08786086570666668</v>
       </c>
       <c r="R24">
-        <v>3.039861272324</v>
+        <v>0.7907477913600001</v>
       </c>
       <c r="S24">
-        <v>0.001568123270700902</v>
+        <v>0.0009333070749408336</v>
       </c>
       <c r="T24">
-        <v>0.001568123270700902</v>
+        <v>0.0009333070749408336</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.002077666666667</v>
+        <v>1.49654</v>
       </c>
       <c r="H25">
-        <v>24.006233</v>
+        <v>4.48962</v>
       </c>
       <c r="I25">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="J25">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N25">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O25">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P25">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q25">
-        <v>4.004076955487444</v>
+        <v>0.6875394091066668</v>
       </c>
       <c r="R25">
-        <v>36.036692599387</v>
+        <v>6.18785468196</v>
       </c>
       <c r="S25">
-        <v>0.01858965630395079</v>
+        <v>0.007303426726550028</v>
       </c>
       <c r="T25">
-        <v>0.01858965630395079</v>
+        <v>0.007303426726550028</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.002077666666667</v>
+        <v>1.49654</v>
       </c>
       <c r="H26">
-        <v>24.006233</v>
+        <v>4.48962</v>
       </c>
       <c r="I26">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="J26">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2046,28 +2046,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N26">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O26">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P26">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q26">
-        <v>0.05249096213411111</v>
+        <v>0.004586895100000001</v>
       </c>
       <c r="R26">
-        <v>0.4724186592069999</v>
+        <v>0.0412820559</v>
       </c>
       <c r="S26">
-        <v>0.0002436988489443333</v>
+        <v>4.872455574400984E-05</v>
       </c>
       <c r="T26">
-        <v>0.0002436988489443333</v>
+        <v>4.872455574400984E-05</v>
       </c>
     </row>
   </sheetData>
